--- a/fuel/燃料碳排放强度.xlsx
+++ b/fuel/燃料碳排放强度.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/fuel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE912421-B449-994F-B4CE-6AF08D2B0755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB4F54-2F82-3E46-9008-75198D028CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{76CF22BB-F491-9D4A-9B43-CEA1793124E9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{76CF22BB-F491-9D4A-9B43-CEA1793124E9}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="4" r:id="rId1"/>
-    <sheet name="燃料电池汽车" sheetId="1" r:id="rId2"/>
-    <sheet name="电动汽车" sheetId="2" r:id="rId3"/>
+    <sheet name="电动汽车" sheetId="2" r:id="rId2"/>
+    <sheet name="燃料电池汽车" sheetId="1" r:id="rId3"/>
     <sheet name="其它参数" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8D56A9-63B5-A445-BEEB-310E5C6E8702}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -705,6 +705,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19E4D3-60BD-C14B-823B-225324A662FA}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E2">
+        <f>D2-0.57/38</f>
+        <v>0.55499999999999994</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:P2" si="0">E2-0.57/38</f>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0.49499999999999988</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.46499999999999986</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999984</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.43499999999999983</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.41999999999999982</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.4049999999999998</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.38999999999999979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5502680E-3D3C-544D-AE37-D9D3D9349E99}">
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -1074,182 +1250,6 @@
       </c>
       <c r="P7">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19E4D3-60BD-C14B-823B-225324A662FA}">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E2">
-        <f>D2-0.57/38</f>
-        <v>0.55499999999999994</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:P2" si="0">E2-0.57/38</f>
-        <v>0.53999999999999992</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0.5099999999999999</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0.49499999999999988</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0.47999999999999987</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>0.46499999999999986</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999984</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999983</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>0.41999999999999982</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>0.4049999999999998</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>0.38999999999999979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/fuel/燃料碳排放强度.xlsx
+++ b/fuel/燃料碳排放强度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/fuel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\Vehicle-LCA-economy\fuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB4F54-2F82-3E46-9008-75198D028CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE709C3-501C-45D9-BA37-5DDF347C875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{76CF22BB-F491-9D4A-9B43-CEA1793124E9}"/>
+    <workbookView xWindow="9050" yWindow="5950" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{76CF22BB-F491-9D4A-9B43-CEA1793124E9}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="4" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -549,7 +547,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" t="s">
@@ -648,7 +646,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18">
+    <row r="3" spans="1:16" ht="17.5">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -708,11 +706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19E4D3-60BD-C14B-823B-225324A662FA}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
@@ -832,46 +830,46 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -884,11 +882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5502680E-3D3C-544D-AE37-D9D3D9349E99}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
@@ -1060,46 +1058,46 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1266,7 +1264,7 @@
       <selection activeCell="C2" sqref="C2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
@@ -1369,5 +1367,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>